--- a/testout.xlsx
+++ b/testout.xlsx
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,34 +485,734 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1700.311291172622</v>
+        <v>976.9958268700276</v>
       </c>
       <c r="C3">
-        <v>0.6603994871548976</v>
+        <v>0.06693323423986935</v>
       </c>
       <c r="D3">
-        <v>4.824381117540307</v>
+        <v>5269.977296650034</v>
       </c>
       <c r="E3">
-        <v>0.5670373201843431</v>
+        <v>50.62849933600509</v>
       </c>
       <c r="F3">
-        <v>8.093278011495105</v>
+        <v>11.02045835189732</v>
       </c>
       <c r="G3">
-        <v>1.959868133396585</v>
+        <v>0.2864262315924695</v>
       </c>
       <c r="H3">
-        <v>3.436927994176123</v>
+        <v>0.5540580043595069</v>
       </c>
       <c r="I3">
-        <v>0.8322864555259888</v>
+        <v>0.5442602015057524</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.427333401477833</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1998097304273172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>984.7608490935352</v>
+      </c>
+      <c r="C4">
+        <v>0.1116730246550517</v>
+      </c>
+      <c r="D4">
+        <v>1749.311345750166</v>
+      </c>
+      <c r="E4">
+        <v>145.3728646052253</v>
+      </c>
+      <c r="F4">
+        <v>5.368518105944267</v>
+      </c>
+      <c r="G4">
+        <v>0.7560903510205583</v>
+      </c>
+      <c r="H4">
+        <v>0.5540580043595069</v>
+      </c>
+      <c r="I4">
+        <v>0.5442602013202411</v>
+      </c>
+      <c r="J4">
+        <v>2.514723193216889</v>
+      </c>
+      <c r="K4">
+        <v>0.4016978145675571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>964.2757148036692</v>
+      </c>
+      <c r="C5">
+        <v>0.07763030193916028</v>
+      </c>
+      <c r="D5">
+        <v>2457.244386116776</v>
+      </c>
+      <c r="E5">
+        <v>134.9423570232219</v>
+      </c>
+      <c r="F5">
+        <v>6.615403478554695</v>
+      </c>
+      <c r="G5">
+        <v>0.5059613364383578</v>
+      </c>
+      <c r="H5">
+        <v>0.5540580043595069</v>
+      </c>
+      <c r="I5">
+        <v>0.5442602013202411</v>
+      </c>
+      <c r="J5">
+        <v>3.169897726294316</v>
+      </c>
+      <c r="K5">
+        <v>0.2634538195724769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>984.860781501072</v>
+      </c>
+      <c r="C6">
+        <v>0.121336944653126</v>
+      </c>
+      <c r="D6">
+        <v>760.9600363608489</v>
+      </c>
+      <c r="E6">
+        <v>37.07759749490266</v>
+      </c>
+      <c r="F6">
+        <v>5.405369836743553</v>
+      </c>
+      <c r="G6">
+        <v>0.4924832350942978</v>
+      </c>
+      <c r="H6">
+        <v>0.387208900434491</v>
+      </c>
+      <c r="I6">
+        <v>0.8287470051577419</v>
+      </c>
+      <c r="J6">
+        <v>2.620243793775816</v>
+      </c>
+      <c r="K6">
+        <v>0.4201573075923415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>964.3718349185516</v>
+      </c>
+      <c r="C7">
+        <v>0.07694780567914587</v>
+      </c>
+      <c r="D7">
+        <v>1189.629983981775</v>
+      </c>
+      <c r="E7">
+        <v>64.51708644118392</v>
+      </c>
+      <c r="F7">
+        <v>6.926654417446674</v>
+      </c>
+      <c r="G7">
+        <v>0.5286905859793406</v>
+      </c>
+      <c r="H7">
+        <v>0.387208900434491</v>
+      </c>
+      <c r="I7">
+        <v>0.8287470071080756</v>
+      </c>
+      <c r="J7">
+        <v>3.398931422775887</v>
+      </c>
+      <c r="K7">
+        <v>0.2692452691470586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>976.9098525304828</v>
+      </c>
+      <c r="C8">
+        <v>0.06942429944127118</v>
+      </c>
+      <c r="D8">
+        <v>2211.653362445873</v>
+      </c>
+      <c r="E8">
+        <v>62.65619282704587</v>
+      </c>
+      <c r="F8">
+        <v>10.71643306425441</v>
+      </c>
+      <c r="G8">
+        <v>0.4379039020642432</v>
+      </c>
+      <c r="H8">
+        <v>0.387208900434491</v>
+      </c>
+      <c r="I8">
+        <v>0.8287470071080756</v>
+      </c>
+      <c r="J8">
+        <v>5.31655082136299</v>
+      </c>
+      <c r="K8">
+        <v>0.2206512294718354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>977.0105391680647</v>
+      </c>
+      <c r="C9">
+        <v>0.1830363034961804</v>
+      </c>
+      <c r="D9">
+        <v>288.726526517694</v>
+      </c>
+      <c r="E9">
+        <v>10.76087020373514</v>
+      </c>
+      <c r="F9">
+        <v>10.55794916426737</v>
+      </c>
+      <c r="G9">
+        <v>0.7189716401154804</v>
+      </c>
+      <c r="H9">
+        <v>0.0001468034913862937</v>
+      </c>
+      <c r="I9">
+        <v>244.4624017045557</v>
+      </c>
+      <c r="J9">
+        <v>5.27895846927131</v>
+      </c>
+      <c r="K9">
+        <v>0.3594847220909395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>964.2457248357463</v>
+      </c>
+      <c r="C10">
+        <v>0.1262353184058511</v>
+      </c>
+      <c r="D10">
+        <v>198.5974435122717</v>
+      </c>
+      <c r="E10">
+        <v>9.465822320995162</v>
+      </c>
+      <c r="F10">
+        <v>5.942609403378138</v>
+      </c>
+      <c r="G10">
+        <v>0.5178948802643074</v>
+      </c>
+      <c r="H10">
+        <v>0.0001468034913862937</v>
+      </c>
+      <c r="I10">
+        <v>244.4624020417737</v>
+      </c>
+      <c r="J10">
+        <v>2.971295625081115</v>
+      </c>
+      <c r="K10">
+        <v>0.2589466505762839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>984.7086813222916</v>
+      </c>
+      <c r="C11">
+        <v>0.3292667386743013</v>
+      </c>
+      <c r="D11">
+        <v>90.54076949013329</v>
+      </c>
+      <c r="E11">
+        <v>12.2697570809066</v>
+      </c>
+      <c r="F11">
+        <v>5.641197983910077</v>
+      </c>
+      <c r="G11">
+        <v>1.438090052081606</v>
+      </c>
+      <c r="H11">
+        <v>0.0001468034913862937</v>
+      </c>
+      <c r="I11">
+        <v>244.4624020417737</v>
+      </c>
+      <c r="J11">
+        <v>2.820590374591045</v>
+      </c>
+      <c r="K11">
+        <v>0.7190428374134309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>963.9721913491618</v>
+      </c>
+      <c r="C12">
+        <v>0.2266106949361216</v>
+      </c>
+      <c r="D12">
+        <v>265.1319258124017</v>
+      </c>
+      <c r="E12">
+        <v>16.71211000131717</v>
+      </c>
+      <c r="F12">
+        <v>6.756836837933291</v>
+      </c>
+      <c r="G12">
+        <v>0.9363461673629077</v>
+      </c>
+      <c r="H12">
+        <v>0.001084616078520728</v>
+      </c>
+      <c r="I12">
+        <v>741.1893984076025</v>
+      </c>
+      <c r="J12">
+        <v>3.378407592414364</v>
+      </c>
+      <c r="K12">
+        <v>0.761466879704819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>976.9069884490056</v>
+      </c>
+      <c r="C13">
+        <v>0.2608295280841544</v>
+      </c>
+      <c r="D13">
+        <v>478.5370547031059</v>
+      </c>
+      <c r="E13">
+        <v>35.03019109964486</v>
+      </c>
+      <c r="F13">
+        <v>11.83999637906345</v>
+      </c>
+      <c r="G13">
+        <v>1.230848004252382</v>
+      </c>
+      <c r="H13">
+        <v>0.001084616078520728</v>
+      </c>
+      <c r="I13">
+        <v>741.1893996466929</v>
+      </c>
+      <c r="J13">
+        <v>5.919979830959162</v>
+      </c>
+      <c r="K13">
+        <v>0.6154221546327732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>984.8183730372119</v>
+      </c>
+      <c r="C14">
+        <v>0.385061087749774</v>
+      </c>
+      <c r="D14">
+        <v>153.1225575276227</v>
+      </c>
+      <c r="E14">
+        <v>38.97742044492804</v>
+      </c>
+      <c r="F14">
+        <v>5.196194099803753</v>
+      </c>
+      <c r="G14">
+        <v>2.676535809162644</v>
+      </c>
+      <c r="H14">
+        <v>0.001084616078520728</v>
+      </c>
+      <c r="I14">
+        <v>741.1893996466929</v>
+      </c>
+      <c r="J14">
+        <v>2.598088448447049</v>
+      </c>
+      <c r="K14">
+        <v>1.338264169263061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>964.256701458867</v>
+      </c>
+      <c r="C15">
+        <v>0.1191015774253873</v>
+      </c>
+      <c r="D15">
+        <v>246.63450760156</v>
+      </c>
+      <c r="E15">
+        <v>7.804864315344095</v>
+      </c>
+      <c r="F15">
+        <v>6.731665300646332</v>
+      </c>
+      <c r="G15">
+        <v>0.465680017223186</v>
+      </c>
+      <c r="H15">
+        <v>6.712633278382896E-05</v>
+      </c>
+      <c r="I15">
+        <v>78.16176432016206</v>
+      </c>
+      <c r="J15">
+        <v>3.365822378771749</v>
+      </c>
+      <c r="K15">
+        <v>0.2301331672080193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>984.9881603981223</v>
+      </c>
+      <c r="C16">
+        <v>0.1350229825866293</v>
+      </c>
+      <c r="D16">
+        <v>191.5127941483226</v>
+      </c>
+      <c r="E16">
+        <v>11.22914492010974</v>
+      </c>
+      <c r="F16">
+        <v>5.262505640206327</v>
+      </c>
+      <c r="G16">
+        <v>0.6044666344638429</v>
+      </c>
+      <c r="H16">
+        <v>6.712633278382896E-05</v>
+      </c>
+      <c r="I16">
+        <v>78.16176439876075</v>
+      </c>
+      <c r="J16">
+        <v>2.631244789285967</v>
+      </c>
+      <c r="K16">
+        <v>0.3022323959082456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>976.9821840176904</v>
+      </c>
+      <c r="C17">
+        <v>0.09946954040277992</v>
+      </c>
+      <c r="D17">
+        <v>487.8920708027577</v>
+      </c>
+      <c r="E17">
+        <v>6.468473786914505</v>
+      </c>
+      <c r="F17">
+        <v>10.40439801039621</v>
+      </c>
+      <c r="G17">
+        <v>0.4133165795364026</v>
+      </c>
+      <c r="H17">
+        <v>6.712633278382896E-05</v>
+      </c>
+      <c r="I17">
+        <v>78.16176439876075</v>
+      </c>
+      <c r="J17">
+        <v>5.20218313137731</v>
+      </c>
+      <c r="K17">
+        <v>0.2066576577220822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>964.6804049055567</v>
+      </c>
+      <c r="C18">
+        <v>0.3325891092716559</v>
+      </c>
+      <c r="D18">
+        <v>112.7586197399874</v>
+      </c>
+      <c r="E18">
+        <v>9.265257472921759</v>
+      </c>
+      <c r="F18">
+        <v>7.543871667045455</v>
+      </c>
+      <c r="G18">
+        <v>1.440949305321746</v>
+      </c>
+      <c r="H18">
+        <v>1.505688460736466</v>
+      </c>
+      <c r="I18">
+        <v>1.265621021748307</v>
+      </c>
+      <c r="J18">
+        <v>2.892035255397404</v>
+      </c>
+      <c r="K18">
+        <v>1.115592306684834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>976.8412613277346</v>
+      </c>
+      <c r="C19">
+        <v>0.2953146066591111</v>
+      </c>
+      <c r="D19">
+        <v>214.1415499581353</v>
+      </c>
+      <c r="E19">
+        <v>37.83927687888555</v>
+      </c>
+      <c r="F19">
+        <v>9.05388068797272</v>
+      </c>
+      <c r="G19">
+        <v>2.567225998640566</v>
+      </c>
+      <c r="H19">
+        <v>1.505688460736466</v>
+      </c>
+      <c r="I19">
+        <v>1.265621020020655</v>
+      </c>
+      <c r="J19">
+        <v>3.789990042073362</v>
+      </c>
+      <c r="K19">
+        <v>1.487629209465292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>985.0020222906896</v>
+      </c>
+      <c r="C20">
+        <v>0.7336348097735542</v>
+      </c>
+      <c r="D20">
+        <v>87.33745618616368</v>
+      </c>
+      <c r="E20">
+        <v>29.67943959046524</v>
+      </c>
+      <c r="F20">
+        <v>8.487586526572116</v>
+      </c>
+      <c r="G20">
+        <v>3.095843239285174</v>
+      </c>
+      <c r="H20">
+        <v>1.505688460736466</v>
+      </c>
+      <c r="I20">
+        <v>1.265621020020655</v>
+      </c>
+      <c r="J20">
+        <v>3.458951902992458</v>
+      </c>
+      <c r="K20">
+        <v>1.826522007297614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>976.9978153956583</v>
+      </c>
+      <c r="C21">
+        <v>0.2145063823346433</v>
+      </c>
+      <c r="D21">
+        <v>358.4918743223126</v>
+      </c>
+      <c r="E21">
+        <v>11.3092209250086</v>
+      </c>
+      <c r="F21">
+        <v>11.03676608966816</v>
+      </c>
+      <c r="G21">
+        <v>0.9312158749983186</v>
+      </c>
+      <c r="H21">
+        <v>0.001801773247576133</v>
+      </c>
+      <c r="I21">
+        <v>506.5619167328006</v>
+      </c>
+      <c r="J21">
+        <v>5.518365331440429</v>
+      </c>
+      <c r="K21">
+        <v>0.5994461659946007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>984.5455266618928</v>
+      </c>
+      <c r="C22">
+        <v>0.3898263586003557</v>
+      </c>
+      <c r="D22">
+        <v>107.6202365627789</v>
+      </c>
+      <c r="E22">
+        <v>30.62654368408154</v>
+      </c>
+      <c r="F22">
+        <v>5.149554495077666</v>
+      </c>
+      <c r="G22">
+        <v>2.709077959130235</v>
+      </c>
+      <c r="H22">
+        <v>0.001801773247576133</v>
+      </c>
+      <c r="I22">
+        <v>506.5619176723274</v>
+      </c>
+      <c r="J22">
+        <v>2.574767513785409</v>
+      </c>
+      <c r="K22">
+        <v>1.354535835367524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>964.2752753021214</v>
+      </c>
+      <c r="C23">
+        <v>0.2694597737766926</v>
+      </c>
+      <c r="D23">
+        <v>156.5603680940074</v>
+      </c>
+      <c r="E23">
+        <v>27.68474029558721</v>
+      </c>
+      <c r="F23">
+        <v>6.571879799732613</v>
+      </c>
+      <c r="G23">
+        <v>1.718165542861244</v>
+      </c>
+      <c r="H23">
+        <v>0.001801773247576133</v>
+      </c>
+      <c r="I23">
+        <v>506.5619176723274</v>
+      </c>
+      <c r="J23">
+        <v>3.285928402675342</v>
+      </c>
+      <c r="K23">
+        <v>0.8590805363707241</v>
       </c>
     </row>
   </sheetData>

--- a/testout.xlsx
+++ b/testout.xlsx
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,34 +485,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>976.9958268700276</v>
+        <v>1197.857903352064</v>
       </c>
       <c r="C3">
-        <v>0.06693323423986935</v>
+        <v>0.02418958404227375</v>
       </c>
       <c r="D3">
-        <v>5269.977296650034</v>
+        <v>4839.230347984118</v>
       </c>
       <c r="E3">
-        <v>50.62849933600509</v>
+        <v>145.8281156512236</v>
       </c>
       <c r="F3">
-        <v>11.02045835189732</v>
+        <v>4.993146533125671</v>
       </c>
       <c r="G3">
-        <v>0.2864262315924695</v>
+        <v>0.04975375404840317</v>
       </c>
       <c r="H3">
-        <v>0.5540580043595069</v>
+        <v>2.120412158627037</v>
       </c>
       <c r="I3">
-        <v>0.5442602015057524</v>
+        <v>0.02112865401262505</v>
       </c>
       <c r="J3">
-        <v>5.427333401477833</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1998097304273172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -520,174 +520,171 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>984.7608490935352</v>
+        <v>1203.957903352064</v>
       </c>
       <c r="C4">
-        <v>0.1116730246550517</v>
+        <v>0.02418958402560949</v>
       </c>
       <c r="D4">
-        <v>1749.311345750166</v>
+        <v>22182.08512892421</v>
       </c>
       <c r="E4">
-        <v>145.3728646052253</v>
+        <v>203.8850007342618</v>
       </c>
       <c r="F4">
-        <v>5.368518105944267</v>
+        <v>4.993146533125671</v>
       </c>
       <c r="G4">
-        <v>0.7560903510205583</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5540580043595069</v>
+        <v>2.120412158627037</v>
       </c>
       <c r="I4">
-        <v>0.5442602013202411</v>
+        <v>0.021128653986307</v>
       </c>
       <c r="J4">
-        <v>2.514723193216889</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4016978145675571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>964.2757148036692</v>
+        <v>1203.504392591808</v>
       </c>
       <c r="C5">
-        <v>0.07763030193916028</v>
+        <v>36555203.20718185</v>
       </c>
       <c r="D5">
-        <v>2457.244386116776</v>
+        <v>12352.05882945671</v>
       </c>
       <c r="E5">
-        <v>134.9423570232219</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>6.615403478554695</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>0.5059613364383578</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.5540580043595069</v>
-      </c>
-      <c r="I5">
-        <v>0.5442602013202411</v>
+        <v>0.1295442332920966</v>
       </c>
       <c r="J5">
-        <v>3.169897726294316</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2634538195724769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>984.860781501072</v>
+        <v>1204.5</v>
       </c>
       <c r="C6">
-        <v>0.121336944653126</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>760.9600363608489</v>
+        <v>11702.99999996422</v>
       </c>
       <c r="E6">
-        <v>37.07759749490266</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5.405369836743553</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>0.4924832350942978</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.387208900434491</v>
+        <v>0.1295442332920966</v>
       </c>
       <c r="I6">
-        <v>0.8287470051577419</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2.620243793775816</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4201573075923415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>964.3718349185516</v>
+        <v>1203.747021279334</v>
       </c>
       <c r="C7">
-        <v>0.07694780567914587</v>
+        <v>6.092263274287248</v>
       </c>
       <c r="D7">
-        <v>1189.629983981775</v>
+        <v>2078.070078159463</v>
       </c>
       <c r="E7">
-        <v>64.51708644118392</v>
+        <v>17164.74093622674</v>
       </c>
       <c r="F7">
-        <v>6.926654417446674</v>
+        <v>5.513278424015677</v>
       </c>
       <c r="G7">
-        <v>0.5286905859793406</v>
+        <v>2.106331231357716</v>
       </c>
       <c r="H7">
-        <v>0.387208900434491</v>
+        <v>2.341293716621779</v>
       </c>
       <c r="I7">
-        <v>0.8287470071080756</v>
+        <v>0.894484133972382</v>
       </c>
       <c r="J7">
-        <v>3.398931422775887</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2692452691470586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>976.9098525304828</v>
+        <v>1204.5</v>
       </c>
       <c r="C8">
-        <v>0.06942429944127118</v>
+        <v>6.092263290770176</v>
       </c>
       <c r="D8">
-        <v>2211.653362445873</v>
+        <v>0.0003458430366332567</v>
       </c>
       <c r="E8">
-        <v>62.65619282704587</v>
+        <v>16109.18909948876</v>
       </c>
       <c r="F8">
-        <v>10.71643306425441</v>
+        <v>5.513278424015677</v>
       </c>
       <c r="G8">
-        <v>0.4379039020642432</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.387208900434491</v>
+        <v>2.341293716621779</v>
       </c>
       <c r="I8">
-        <v>0.8287470071080756</v>
+        <v>0.8944841361765448</v>
       </c>
       <c r="J8">
-        <v>5.31655082136299</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2206512294718354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,34 +692,34 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>977.0105391680647</v>
+        <v>1201.313659149814</v>
       </c>
       <c r="C9">
-        <v>0.1830363034961804</v>
+        <v>1.653173431720637</v>
       </c>
       <c r="D9">
-        <v>288.726526517694</v>
+        <v>705.4049387176522</v>
       </c>
       <c r="E9">
-        <v>10.76087020373514</v>
+        <v>1832.343690924262</v>
       </c>
       <c r="F9">
-        <v>10.55794916426737</v>
+        <v>5.45908566095081</v>
       </c>
       <c r="G9">
-        <v>0.7189716401154804</v>
+        <v>5.412096032064066</v>
       </c>
       <c r="H9">
-        <v>0.0001468034913862937</v>
+        <v>2.318279973093526</v>
       </c>
       <c r="I9">
-        <v>244.4624017045557</v>
+        <v>2.298325152493521</v>
       </c>
       <c r="J9">
-        <v>5.27895846927131</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3594847220909395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,174 +727,174 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>964.2457248357463</v>
+        <v>1204.5</v>
       </c>
       <c r="C10">
-        <v>0.1262353184058511</v>
+        <v>1.65317343243369</v>
       </c>
       <c r="D10">
-        <v>198.5974435122717</v>
+        <v>2533.812261960868</v>
       </c>
       <c r="E10">
-        <v>9.465822320995162</v>
+        <v>2572.576680216918</v>
       </c>
       <c r="F10">
-        <v>5.942609403378138</v>
+        <v>5.45908566095081</v>
       </c>
       <c r="G10">
-        <v>0.5178948802643074</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0001468034913862937</v>
+        <v>2.318279973093526</v>
       </c>
       <c r="I10">
-        <v>244.4624020417737</v>
+        <v>2.298325146166922</v>
       </c>
       <c r="J10">
-        <v>2.971295625081115</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2589466505762839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>984.7086813222916</v>
+        <v>1197.694094758245</v>
       </c>
       <c r="C11">
-        <v>0.3292667386743013</v>
+        <v>0.05069023981001947</v>
       </c>
       <c r="D11">
-        <v>90.54076949013329</v>
+        <v>512.0940041707535</v>
       </c>
       <c r="E11">
-        <v>12.2697570809066</v>
+        <v>38.46466755958183</v>
       </c>
       <c r="F11">
-        <v>5.641197983910077</v>
+        <v>4.785790835322817</v>
       </c>
       <c r="G11">
-        <v>1.438090052081606</v>
+        <v>0.1112517475686959</v>
       </c>
       <c r="H11">
-        <v>0.0001468034913862937</v>
+        <v>2.032355551462631</v>
       </c>
       <c r="I11">
-        <v>244.4624020417737</v>
+        <v>0.04724466964239888</v>
       </c>
       <c r="J11">
-        <v>2.820590374591045</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7190428374134309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>963.9721913491618</v>
+        <v>1203.794094758245</v>
       </c>
       <c r="C12">
-        <v>0.2266106949361216</v>
+        <v>0.0506902396846848</v>
       </c>
       <c r="D12">
-        <v>265.1319258124017</v>
+        <v>2293.061155800896</v>
       </c>
       <c r="E12">
-        <v>16.71211000131717</v>
+        <v>47.4478860606395</v>
       </c>
       <c r="F12">
-        <v>6.756836837933291</v>
+        <v>4.785790835322817</v>
       </c>
       <c r="G12">
-        <v>0.9363461673629077</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.001084616078520728</v>
+        <v>2.032355551462631</v>
       </c>
       <c r="I12">
-        <v>741.1893984076025</v>
+        <v>0.04724466953752718</v>
       </c>
       <c r="J12">
-        <v>3.378407592414364</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.761466879704819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>976.9069884490056</v>
+        <v>1204.287022712923</v>
       </c>
       <c r="C13">
-        <v>0.2608295280841544</v>
+        <v>14721839.54820037</v>
       </c>
       <c r="D13">
-        <v>478.5370547031059</v>
+        <v>0.000145331255725825</v>
       </c>
       <c r="E13">
-        <v>35.03019109964486</v>
+        <v>4333.134871143917</v>
       </c>
       <c r="F13">
-        <v>11.83999637906345</v>
+        <v>7.818376439848815</v>
       </c>
       <c r="G13">
-        <v>1.230848004252382</v>
+        <v>1.687234718544879</v>
       </c>
       <c r="H13">
-        <v>0.001084616078520728</v>
+        <v>3.320187051150046</v>
       </c>
       <c r="I13">
-        <v>741.1893996466929</v>
+        <v>0.7165087177245144</v>
       </c>
       <c r="J13">
-        <v>5.919979830959162</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6154221546327732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>984.8183730372119</v>
+        <v>1204.5</v>
       </c>
       <c r="C14">
-        <v>0.385061087749774</v>
+        <v>14721839.58168015</v>
       </c>
       <c r="D14">
-        <v>153.1225575276227</v>
+        <v>886.0835445511739</v>
       </c>
       <c r="E14">
-        <v>38.97742044492804</v>
+        <v>3392.563418859803</v>
       </c>
       <c r="F14">
-        <v>5.196194099803753</v>
+        <v>7.818376439848815</v>
       </c>
       <c r="G14">
-        <v>2.676535809162644</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.001084616078520728</v>
+        <v>3.320187051150046</v>
       </c>
       <c r="I14">
-        <v>741.1893996466929</v>
+        <v>0.7165087168556591</v>
       </c>
       <c r="J14">
-        <v>2.598088448447049</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.338264169263061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -905,34 +902,34 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>964.256701458867</v>
+        <v>1197.670237009553</v>
       </c>
       <c r="C15">
-        <v>0.1191015774253873</v>
+        <v>0.0835099746552289</v>
       </c>
       <c r="D15">
-        <v>246.63450760156</v>
+        <v>308.5625065689817</v>
       </c>
       <c r="E15">
-        <v>7.804864315344095</v>
+        <v>36.27050021105089</v>
       </c>
       <c r="F15">
-        <v>6.731665300646332</v>
+        <v>5.096344126016659</v>
       </c>
       <c r="G15">
-        <v>0.465680017223186</v>
+        <v>0.1875844850396162</v>
       </c>
       <c r="H15">
-        <v>6.712633278382896E-05</v>
+        <v>2.16423651452274</v>
       </c>
       <c r="I15">
-        <v>78.16176432016206</v>
+        <v>0.07966047485239894</v>
       </c>
       <c r="J15">
-        <v>3.365822378771749</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2301331672080193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -940,279 +937,34 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>984.9881603981223</v>
+        <v>1203.770237009553</v>
       </c>
       <c r="C16">
-        <v>0.1350229825866293</v>
+        <v>0.08350997449280832</v>
       </c>
       <c r="D16">
-        <v>191.5127941483226</v>
+        <v>1413.512358351985</v>
       </c>
       <c r="E16">
-        <v>11.22914492010974</v>
+        <v>45.74899937532195</v>
       </c>
       <c r="F16">
-        <v>5.262505640206327</v>
+        <v>5.096344126016659</v>
       </c>
       <c r="G16">
-        <v>0.6044666344638429</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>6.712633278382896E-05</v>
+        <v>2.16423651452274</v>
       </c>
       <c r="I16">
-        <v>78.16176439876075</v>
+        <v>0.07966047489795509</v>
       </c>
       <c r="J16">
-        <v>2.631244789285967</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3022323959082456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>976.9821840176904</v>
-      </c>
-      <c r="C17">
-        <v>0.09946954040277992</v>
-      </c>
-      <c r="D17">
-        <v>487.8920708027577</v>
-      </c>
-      <c r="E17">
-        <v>6.468473786914505</v>
-      </c>
-      <c r="F17">
-        <v>10.40439801039621</v>
-      </c>
-      <c r="G17">
-        <v>0.4133165795364026</v>
-      </c>
-      <c r="H17">
-        <v>6.712633278382896E-05</v>
-      </c>
-      <c r="I17">
-        <v>78.16176439876075</v>
-      </c>
-      <c r="J17">
-        <v>5.20218313137731</v>
-      </c>
-      <c r="K17">
-        <v>0.2066576577220822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>964.6804049055567</v>
-      </c>
-      <c r="C18">
-        <v>0.3325891092716559</v>
-      </c>
-      <c r="D18">
-        <v>112.7586197399874</v>
-      </c>
-      <c r="E18">
-        <v>9.265257472921759</v>
-      </c>
-      <c r="F18">
-        <v>7.543871667045455</v>
-      </c>
-      <c r="G18">
-        <v>1.440949305321746</v>
-      </c>
-      <c r="H18">
-        <v>1.505688460736466</v>
-      </c>
-      <c r="I18">
-        <v>1.265621021748307</v>
-      </c>
-      <c r="J18">
-        <v>2.892035255397404</v>
-      </c>
-      <c r="K18">
-        <v>1.115592306684834</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>976.8412613277346</v>
-      </c>
-      <c r="C19">
-        <v>0.2953146066591111</v>
-      </c>
-      <c r="D19">
-        <v>214.1415499581353</v>
-      </c>
-      <c r="E19">
-        <v>37.83927687888555</v>
-      </c>
-      <c r="F19">
-        <v>9.05388068797272</v>
-      </c>
-      <c r="G19">
-        <v>2.567225998640566</v>
-      </c>
-      <c r="H19">
-        <v>1.505688460736466</v>
-      </c>
-      <c r="I19">
-        <v>1.265621020020655</v>
-      </c>
-      <c r="J19">
-        <v>3.789990042073362</v>
-      </c>
-      <c r="K19">
-        <v>1.487629209465292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>985.0020222906896</v>
-      </c>
-      <c r="C20">
-        <v>0.7336348097735542</v>
-      </c>
-      <c r="D20">
-        <v>87.33745618616368</v>
-      </c>
-      <c r="E20">
-        <v>29.67943959046524</v>
-      </c>
-      <c r="F20">
-        <v>8.487586526572116</v>
-      </c>
-      <c r="G20">
-        <v>3.095843239285174</v>
-      </c>
-      <c r="H20">
-        <v>1.505688460736466</v>
-      </c>
-      <c r="I20">
-        <v>1.265621020020655</v>
-      </c>
-      <c r="J20">
-        <v>3.458951902992458</v>
-      </c>
-      <c r="K20">
-        <v>1.826522007297614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>976.9978153956583</v>
-      </c>
-      <c r="C21">
-        <v>0.2145063823346433</v>
-      </c>
-      <c r="D21">
-        <v>358.4918743223126</v>
-      </c>
-      <c r="E21">
-        <v>11.3092209250086</v>
-      </c>
-      <c r="F21">
-        <v>11.03676608966816</v>
-      </c>
-      <c r="G21">
-        <v>0.9312158749983186</v>
-      </c>
-      <c r="H21">
-        <v>0.001801773247576133</v>
-      </c>
-      <c r="I21">
-        <v>506.5619167328006</v>
-      </c>
-      <c r="J21">
-        <v>5.518365331440429</v>
-      </c>
-      <c r="K21">
-        <v>0.5994461659946007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>984.5455266618928</v>
-      </c>
-      <c r="C22">
-        <v>0.3898263586003557</v>
-      </c>
-      <c r="D22">
-        <v>107.6202365627789</v>
-      </c>
-      <c r="E22">
-        <v>30.62654368408154</v>
-      </c>
-      <c r="F22">
-        <v>5.149554495077666</v>
-      </c>
-      <c r="G22">
-        <v>2.709077959130235</v>
-      </c>
-      <c r="H22">
-        <v>0.001801773247576133</v>
-      </c>
-      <c r="I22">
-        <v>506.5619176723274</v>
-      </c>
-      <c r="J22">
-        <v>2.574767513785409</v>
-      </c>
-      <c r="K22">
-        <v>1.354535835367524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>964.2752753021214</v>
-      </c>
-      <c r="C23">
-        <v>0.2694597737766926</v>
-      </c>
-      <c r="D23">
-        <v>156.5603680940074</v>
-      </c>
-      <c r="E23">
-        <v>27.68474029558721</v>
-      </c>
-      <c r="F23">
-        <v>6.571879799732613</v>
-      </c>
-      <c r="G23">
-        <v>1.718165542861244</v>
-      </c>
-      <c r="H23">
-        <v>0.001801773247576133</v>
-      </c>
-      <c r="I23">
-        <v>506.5619176723274</v>
-      </c>
-      <c r="J23">
-        <v>3.285928402675342</v>
-      </c>
-      <c r="K23">
-        <v>0.8590805363707241</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/testout.xlsx
+++ b/testout.xlsx
@@ -555,25 +555,28 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1203.504392591808</v>
+        <v>1197.670237009553</v>
       </c>
       <c r="C5">
-        <v>36555203.20718185</v>
+        <v>0.0835099746552289</v>
       </c>
       <c r="D5">
-        <v>12352.05882945671</v>
+        <v>308.5625065689817</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>36.27050021105089</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5.096344126016659</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.1875844850396162</v>
       </c>
       <c r="H5">
-        <v>0.1295442332920966</v>
+        <v>2.16423651452274</v>
+      </c>
+      <c r="I5">
+        <v>0.07966047485239894</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -587,28 +590,28 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1204.5</v>
+        <v>1203.770237009553</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.08350997449280832</v>
       </c>
       <c r="D6">
-        <v>11702.99999996422</v>
+        <v>1413.512358351985</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>45.74899937532195</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5.096344126016659</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1295442332920966</v>
+        <v>2.16423651452274</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.07966047489795509</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -622,28 +625,28 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1203.747021279334</v>
+        <v>1204.287022712923</v>
       </c>
       <c r="C7">
-        <v>6.092263274287248</v>
+        <v>14721839.54820037</v>
       </c>
       <c r="D7">
-        <v>2078.070078159463</v>
+        <v>0.000145331255725825</v>
       </c>
       <c r="E7">
-        <v>17164.74093622674</v>
+        <v>4333.134871143917</v>
       </c>
       <c r="F7">
-        <v>5.513278424015677</v>
+        <v>7.818376439848815</v>
       </c>
       <c r="G7">
-        <v>2.106331231357716</v>
+        <v>1.687234718544879</v>
       </c>
       <c r="H7">
-        <v>2.341293716621779</v>
+        <v>3.320187051150046</v>
       </c>
       <c r="I7">
-        <v>0.894484133972382</v>
+        <v>0.7165087177245144</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -660,25 +663,25 @@
         <v>1204.5</v>
       </c>
       <c r="C8">
-        <v>6.092263290770176</v>
+        <v>14721839.58168015</v>
       </c>
       <c r="D8">
-        <v>0.0003458430366332567</v>
+        <v>886.0835445511739</v>
       </c>
       <c r="E8">
-        <v>16109.18909948876</v>
+        <v>3392.563418859803</v>
       </c>
       <c r="F8">
-        <v>5.513278424015677</v>
+        <v>7.818376439848815</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.341293716621779</v>
+        <v>3.320187051150046</v>
       </c>
       <c r="I8">
-        <v>0.8944841361765448</v>
+        <v>0.7165087168556591</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -692,28 +695,28 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1201.313659149814</v>
+        <v>1197.694094758245</v>
       </c>
       <c r="C9">
-        <v>1.653173431720637</v>
+        <v>0.05069023981001947</v>
       </c>
       <c r="D9">
-        <v>705.4049387176522</v>
+        <v>512.0940041707535</v>
       </c>
       <c r="E9">
-        <v>1832.343690924262</v>
+        <v>38.46466755958183</v>
       </c>
       <c r="F9">
-        <v>5.45908566095081</v>
+        <v>4.785790835322817</v>
       </c>
       <c r="G9">
-        <v>5.412096032064066</v>
+        <v>0.1112517475686959</v>
       </c>
       <c r="H9">
-        <v>2.318279973093526</v>
+        <v>2.032355551462631</v>
       </c>
       <c r="I9">
-        <v>2.298325152493521</v>
+        <v>0.04724466964239888</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -727,28 +730,28 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>1204.5</v>
+        <v>1203.794094758245</v>
       </c>
       <c r="C10">
-        <v>1.65317343243369</v>
+        <v>0.0506902396846848</v>
       </c>
       <c r="D10">
-        <v>2533.812261960868</v>
+        <v>2293.061155800896</v>
       </c>
       <c r="E10">
-        <v>2572.576680216918</v>
+        <v>47.4478860606395</v>
       </c>
       <c r="F10">
-        <v>5.45908566095081</v>
+        <v>4.785790835322817</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.318279973093526</v>
+        <v>2.032355551462631</v>
       </c>
       <c r="I10">
-        <v>2.298325146166922</v>
+        <v>0.04724466953752718</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -762,28 +765,25 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1197.694094758245</v>
+        <v>1203.504392591808</v>
       </c>
       <c r="C11">
-        <v>0.05069023981001947</v>
+        <v>36555203.20718185</v>
       </c>
       <c r="D11">
-        <v>512.0940041707535</v>
+        <v>12352.05882945671</v>
       </c>
       <c r="E11">
-        <v>38.46466755958183</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>4.785790835322817</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>0.1112517475686959</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2.032355551462631</v>
-      </c>
-      <c r="I11">
-        <v>0.04724466964239888</v>
+        <v>0.1295442332920966</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>1203.794094758245</v>
+        <v>1204.5</v>
       </c>
       <c r="C12">
-        <v>0.0506902396846848</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>2293.061155800896</v>
+        <v>11702.99999996422</v>
       </c>
       <c r="E12">
-        <v>47.4478860606395</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>4.785790835322817</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.032355551462631</v>
+        <v>0.1295442332920966</v>
       </c>
       <c r="I12">
-        <v>0.04724466953752718</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -832,28 +832,28 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>1204.287022712923</v>
+        <v>1201.313659149814</v>
       </c>
       <c r="C13">
-        <v>14721839.54820037</v>
+        <v>1.653173431720637</v>
       </c>
       <c r="D13">
-        <v>0.000145331255725825</v>
+        <v>705.4049387176522</v>
       </c>
       <c r="E13">
-        <v>4333.134871143917</v>
+        <v>1832.343690924262</v>
       </c>
       <c r="F13">
-        <v>7.818376439848815</v>
+        <v>5.45908566095081</v>
       </c>
       <c r="G13">
-        <v>1.687234718544879</v>
+        <v>5.412096032064066</v>
       </c>
       <c r="H13">
-        <v>3.320187051150046</v>
+        <v>2.318279973093526</v>
       </c>
       <c r="I13">
-        <v>0.7165087177245144</v>
+        <v>2.298325152493521</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -870,25 +870,25 @@
         <v>1204.5</v>
       </c>
       <c r="C14">
-        <v>14721839.58168015</v>
+        <v>1.65317343243369</v>
       </c>
       <c r="D14">
-        <v>886.0835445511739</v>
+        <v>2533.812261960868</v>
       </c>
       <c r="E14">
-        <v>3392.563418859803</v>
+        <v>2572.576680216918</v>
       </c>
       <c r="F14">
-        <v>7.818376439848815</v>
+        <v>5.45908566095081</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3.320187051150046</v>
+        <v>2.318279973093526</v>
       </c>
       <c r="I14">
-        <v>0.7165087168556591</v>
+        <v>2.298325146166922</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -902,28 +902,28 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>1197.670237009553</v>
+        <v>1203.747021279334</v>
       </c>
       <c r="C15">
-        <v>0.0835099746552289</v>
+        <v>6.092263274287248</v>
       </c>
       <c r="D15">
-        <v>308.5625065689817</v>
+        <v>2078.070078159463</v>
       </c>
       <c r="E15">
-        <v>36.27050021105089</v>
+        <v>17164.74093622674</v>
       </c>
       <c r="F15">
-        <v>5.096344126016659</v>
+        <v>5.513278424015677</v>
       </c>
       <c r="G15">
-        <v>0.1875844850396162</v>
+        <v>2.106331231357716</v>
       </c>
       <c r="H15">
-        <v>2.16423651452274</v>
+        <v>2.341293716621779</v>
       </c>
       <c r="I15">
-        <v>0.07966047485239894</v>
+        <v>0.894484133972382</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -937,28 +937,28 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>1203.770237009553</v>
+        <v>1204.5</v>
       </c>
       <c r="C16">
-        <v>0.08350997449280832</v>
+        <v>6.092263290770176</v>
       </c>
       <c r="D16">
-        <v>1413.512358351985</v>
+        <v>0.0003458430366332567</v>
       </c>
       <c r="E16">
-        <v>45.74899937532195</v>
+        <v>16109.18909948876</v>
       </c>
       <c r="F16">
-        <v>5.096344126016659</v>
+        <v>5.513278424015677</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.16423651452274</v>
+        <v>2.341293716621779</v>
       </c>
       <c r="I16">
-        <v>0.07966047489795509</v>
+        <v>0.8944841361765448</v>
       </c>
       <c r="J16">
         <v>0</v>

--- a/testout.xlsx
+++ b/testout.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
   <si>
     <t>line number</t>
   </si>
@@ -52,202 +52,184 @@
     <t>state</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1205.3080995015596</t>
+  </si>
+  <si>
+    <t>1198.5000000055636</t>
+  </si>
+  <si>
+    <t>1205.3080940254529</t>
+  </si>
+  <si>
+    <t>1209.1370822586618</t>
+  </si>
+  <si>
+    <t>1204.4118807988261</t>
+  </si>
+  <si>
+    <t>1198.5000000000082</t>
+  </si>
+  <si>
+    <t>1204.2971985777192</t>
+  </si>
+  <si>
+    <t>1208.6800994373255</t>
+  </si>
+  <si>
+    <t>1198.6921270026119</t>
+  </si>
+  <si>
+    <t>7125568.727297957</t>
+  </si>
+  <si>
+    <t>58.10865573652224</t>
+  </si>
+  <si>
+    <t>4889501.28719318</t>
+  </si>
+  <si>
+    <t>4.088797532528423</t>
+  </si>
+  <si>
+    <t>0.14550613383384803</t>
+  </si>
+  <si>
+    <t>0.01662167915321932</t>
+  </si>
+  <si>
+    <t>0.04667687047301603</t>
+  </si>
+  <si>
+    <t>0.6232557547563089</t>
+  </si>
+  <si>
+    <t>0.5531975736203085</t>
+  </si>
+  <si>
+    <t>996.1319333500705</t>
+  </si>
+  <si>
+    <t>363.16578935233093</t>
+  </si>
+  <si>
+    <t>1451.6924739852113</t>
+  </si>
+  <si>
+    <t>74.9296054225107</t>
+  </si>
+  <si>
+    <t>1154.4669220875548</t>
+  </si>
+  <si>
+    <t>398.2971169684042</t>
+  </si>
+  <si>
+    <t>3805.7466186897313</t>
+  </si>
+  <si>
+    <t>471.3553274395847</t>
+  </si>
+  <si>
+    <t>595.7658342748322</t>
+  </si>
+  <si>
+    <t>4093482218.0823884</t>
+  </si>
+  <si>
+    <t>9447.411113609021</t>
+  </si>
+  <si>
+    <t>4093480359.2598705</t>
+  </si>
+  <si>
+    <t>67.7933624308111</t>
+  </si>
+  <si>
+    <t>107.65540973911936</t>
+  </si>
+  <si>
+    <t>47.33671485465361</t>
+  </si>
+  <si>
+    <t>36.42668130915545</t>
+  </si>
+  <si>
+    <t>76.92364125637584</t>
+  </si>
+  <si>
+    <t>52.18384834138018</t>
+  </si>
+  <si>
+    <t>8.67666452386355</t>
+  </si>
+  <si>
+    <t>4.916419856651996</t>
+  </si>
+  <si>
+    <t>4.788457726517437</t>
+  </si>
+  <si>
+    <t>124.66316881714795</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1973.0624827582947</t>
-  </si>
-  <si>
-    <t>1972.4493711010423</t>
-  </si>
-  <si>
-    <t>1974.4999999642193</t>
-  </si>
-  <si>
-    <t>1972.7046417036186</t>
-  </si>
-  <si>
-    <t>1972.6680927779535</t>
-  </si>
-  <si>
-    <t>1972.9249065847346</t>
-  </si>
-  <si>
-    <t>1972.1031166220848</t>
-  </si>
-  <si>
-    <t>0.1727745476032748</t>
-  </si>
-  <si>
-    <t>0.2925917230798388</t>
-  </si>
-  <si>
-    <t>29.775260951779824</t>
-  </si>
-  <si>
-    <t>0.341365972558261</t>
-  </si>
-  <si>
-    <t>0.12510568736285832</t>
-  </si>
-  <si>
-    <t>0.19072985871305717</t>
-  </si>
-  <si>
-    <t>0.14876351813584818</t>
-  </si>
-  <si>
-    <t>292.58712122765905</t>
-  </si>
-  <si>
-    <t>19.920300146016828</t>
-  </si>
-  <si>
-    <t>13.376961955171467</t>
-  </si>
-  <si>
-    <t>30.11342207363192</t>
-  </si>
-  <si>
-    <t>159.84779967518594</t>
-  </si>
-  <si>
-    <t>35.92481498446652</t>
-  </si>
-  <si>
-    <t>23.886383129666893</t>
-  </si>
-  <si>
-    <t>9.950626059005998</t>
-  </si>
-  <si>
-    <t>2.101802854858175</t>
-  </si>
-  <si>
-    <t>3.462586637030227</t>
-  </si>
-  <si>
-    <t>2.934951766665308</t>
-  </si>
-  <si>
-    <t>5.901456843494727</t>
-  </si>
-  <si>
-    <t>1.561667426004501</t>
-  </si>
-  <si>
-    <t>0.8649045993617299</t>
-  </si>
-  <si>
-    <t>6.111467457675845</t>
-  </si>
-  <si>
-    <t>4.4745609377433455</t>
-  </si>
-  <si>
-    <t>13.53477554302783</t>
-  </si>
-  <si>
-    <t>5.3436214556747</t>
-  </si>
-  <si>
-    <t>5.243163862272733</t>
-  </si>
-  <si>
-    <t>5.993618874295102</t>
-  </si>
-  <si>
-    <t>5.79808272495422</t>
-  </si>
-  <si>
-    <t>0.7178995300109972</t>
-  </si>
-  <si>
-    <t>0.997847821811736</t>
-  </si>
-  <si>
-    <t>39.805579545540084</t>
-  </si>
-  <si>
-    <t>1.4298629940583354</t>
-  </si>
-  <si>
-    <t>0.5071935576445005</t>
-  </si>
-  <si>
-    <t>0.8583401162019237</t>
-  </si>
-  <si>
-    <t>0.6512107165374891</t>
-  </si>
-  <si>
-    <t>2.595323373415441</t>
-  </si>
-  <si>
-    <t>1.900187257466531</t>
-  </si>
-  <si>
-    <t>5.747738912793038</t>
-  </si>
-  <si>
-    <t>2.2692464221794078</t>
-  </si>
-  <si>
-    <t>2.2265856468420977</t>
-  </si>
-  <si>
-    <t>2.5452772617262105</t>
-  </si>
-  <si>
-    <t>2.4622399973954217</t>
-  </si>
-  <si>
-    <t>0.30486645570769627</t>
-  </si>
-  <si>
-    <t>0.42375056487393015</t>
-  </si>
-  <si>
-    <t>16.904017253611205</t>
-  </si>
-  <si>
-    <t>0.6072120729540834</t>
-  </si>
-  <si>
-    <t>0.21538710730650104</t>
-  </si>
-  <si>
-    <t>0.36450659040707545</t>
-  </si>
-  <si>
-    <t>0.27654608486626436</t>
+    <t>0.38329318794302425</t>
+  </si>
+  <si>
+    <t>0.1448937032118679</t>
+  </si>
+  <si>
+    <t>3.6846715454214944</t>
+  </si>
+  <si>
+    <t>2.0878290616547197</t>
+  </si>
+  <si>
+    <t>2.033488085522525</t>
+  </si>
+  <si>
+    <t>52.93740340490567</t>
+  </si>
+  <si>
+    <t>52.94002435421317</t>
+  </si>
+  <si>
+    <t>0.1627710161270353</t>
+  </si>
+  <si>
+    <t>0.16277101664535598</t>
+  </si>
+  <si>
+    <t>0.06153121487554504</t>
+  </si>
+  <si>
+    <t>0.06153121470558006</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>AA</t>
   </si>
 </sst>
 </file>
@@ -605,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,193 +632,148 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" t="s">
-        <v>70</v>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1210.5</v>
+      </c>
+      <c r="D3">
+        <v>1633.706224837479</v>
+      </c>
+      <c r="F3">
+        <v>5.198048714488738</v>
+      </c>
+      <c r="H3">
+        <v>2.207426844418658</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1204.67802997595</v>
+      </c>
+      <c r="D4">
+        <v>8629.713932516655</v>
+      </c>
+      <c r="F4">
+        <v>5.198048714488738</v>
+      </c>
+      <c r="H4">
+        <v>2.207426844418658</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1198.5</v>
+      </c>
+      <c r="D5">
+        <v>1310.922110873218</v>
+      </c>
+      <c r="F5">
+        <v>5.198048714488738</v>
+      </c>
+      <c r="H5">
+        <v>2.207426844418658</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -844,113 +781,303 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
         <v>55</v>
       </c>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" t="s">
-        <v>77</v>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
